--- a/Doc/이지환 Time Schedule Fix.xlsx
+++ b/Doc/이지환 Time Schedule Fix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYooon\Desktop\Project2002\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039A770-8B6A-45F3-81BF-89F722FD57C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922CD314-C49F-4DBE-98AF-A7BC44BF3EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="0" windowWidth="21600" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>일별 일정</t>
   </si>
@@ -71,13 +71,6 @@
   </si>
   <si>
     <t>금</t>
-  </si>
-  <si>
-    <t>토</t>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>게임기획</t>
@@ -657,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -685,36 +678,37 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="28" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - 강조색1" xfId="24" builtinId="30" customBuiltin="1"/>
@@ -765,19 +759,7 @@
     <cellStyle name="통화 [0]" xfId="8" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -869,10 +851,10 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="일정" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -887,17 +869,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="일정" displayName="일정" ref="B3:I51" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="20% - 강조색2">
-  <autoFilter ref="B3:I51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="시간" totalsRowLabel="요약" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="월" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="화" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="수" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="목" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="금" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="토" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="일" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="일정" displayName="일정" ref="B3:G51" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="20% - 강조색2">
+  <autoFilter ref="B3:G51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="시간" totalsRowLabel="요약" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="월" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="화" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="수" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="목" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="금" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="일정" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -1118,15 +1098,15 @@
   <dimension ref="B1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="28.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
     <col min="3" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1147,10 +1127,10 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1179,12 +1159,6 @@
       </c>
       <c r="G3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.9" customHeight="1">
@@ -1197,8 +1171,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="28.9" customHeight="1">
       <c r="B5" s="5">
@@ -1210,8 +1183,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:10" ht="28.9" customHeight="1">
       <c r="B6" s="5">
@@ -1223,8 +1195,6 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:10" ht="28.9" customHeight="1">
       <c r="B7" s="5">
@@ -1236,23 +1206,19 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="28.9" customHeight="1">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="28.9" customHeight="1">
       <c r="B9" s="5">
@@ -1264,10 +1230,8 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" ht="29.45" customHeight="1">
+    </row>
+    <row r="10" spans="2:10" ht="29.5" customHeight="1">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>0.37499999999999989</v>
@@ -1277,8 +1241,6 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
       <c r="B11" s="5">
@@ -1287,11 +1249,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
       <c r="B12" s="5">
@@ -1299,14 +1259,12 @@
         <v>0.41666666666666652</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>20</v>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
       <c r="B13" s="5">
@@ -1314,12 +1272,10 @@
         <v>0.43749999999999983</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="28.9" customHeight="1">
       <c r="B14" s="5">
@@ -1327,12 +1283,10 @@
         <v>0.45833333333333315</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="28.9" customHeight="1">
       <c r="B15" s="5">
@@ -1340,196 +1294,170 @@
         <v>0.47916666666666646</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10"/>
+      <c r="D15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="28.9" customHeight="1">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>0.49999999999999978</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="28.9" customHeight="1">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" ht="28.9" customHeight="1">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56249999999999989</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" ht="28.9" customHeight="1">
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68750000000000011</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666652</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56249999999999989</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.68750000000000011</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F25" s="9"/>
+      <c r="G25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="28.9" customHeight="1">
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" ht="28.9" customHeight="1">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" ht="28.9" customHeight="1">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
@@ -1538,82 +1466,70 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" ht="28.9" customHeight="1">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" ht="28.9" customHeight="1">
       <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F29" s="16"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" ht="28.9" customHeight="1">
       <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F30" s="16"/>
+      <c r="G30" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="28.9" customHeight="1">
       <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>0.81250000000000033</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>22</v>
+      <c r="C31" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" ht="28.9" customHeight="1">
       <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>0.8333333333333337</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F32" s="16"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" ht="28.9" customHeight="1">
       <c r="B33" s="5">
         <f t="shared" si="0"/>
         <v>0.85416666666666707</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" ht="28.9" customHeight="1">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" ht="28.9" customHeight="1">
       <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>0.87500000000000044</v>
@@ -1622,11 +1538,9 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" ht="28.9" customHeight="1">
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7" ht="28.9" customHeight="1">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>0.89583333333333381</v>
@@ -1635,73 +1549,63 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" ht="28.9" customHeight="1">
+      <c r="G35" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="28.9" customHeight="1">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>0.91666666666666718</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7" ht="28.9" customHeight="1">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>0.93750000000000056</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>23</v>
+      <c r="C37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7" ht="28.9" customHeight="1">
       <c r="B38" s="5">
         <f t="shared" ref="B38:B51" si="1">B37+TIME(0,30,0)</f>
         <v>0.95833333333333393</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="2:7" ht="28.9" customHeight="1">
       <c r="B39" s="5">
         <f t="shared" si="1"/>
         <v>0.9791666666666673</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" ht="28.9" customHeight="1">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="28.9" customHeight="1">
       <c r="B40" s="5">
         <f t="shared" si="1"/>
         <v>1.0000000000000007</v>
@@ -1710,11 +1614,9 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" ht="28.9" customHeight="1">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="2:7" ht="28.9" customHeight="1">
       <c r="B41" s="5">
         <f t="shared" si="1"/>
         <v>1.0208333333333339</v>
@@ -1723,11 +1625,9 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" ht="28.9" customHeight="1">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="2:7" ht="28.9" customHeight="1">
       <c r="B42" s="5">
         <f t="shared" si="1"/>
         <v>1.0416666666666672</v>
@@ -1737,10 +1637,8 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="43" spans="2:7" ht="28.9" customHeight="1">
       <c r="B43" s="5">
         <f t="shared" si="1"/>
         <v>1.0625000000000004</v>
@@ -1750,10 +1648,8 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="44" spans="2:7" ht="28.9" customHeight="1">
       <c r="B44" s="5">
         <f t="shared" si="1"/>
         <v>1.0833333333333337</v>
@@ -1763,10 +1659,8 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="45" spans="2:7" ht="28.9" customHeight="1">
       <c r="B45" s="5">
         <f t="shared" si="1"/>
         <v>1.104166666666667</v>
@@ -1776,10 +1670,8 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="46" spans="2:7" ht="28.9" customHeight="1">
       <c r="B46" s="5">
         <f t="shared" si="1"/>
         <v>1.1250000000000002</v>
@@ -1789,10 +1681,8 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="47" spans="2:7" ht="28.9" customHeight="1">
       <c r="B47" s="5">
         <f t="shared" si="1"/>
         <v>1.1458333333333335</v>
@@ -1802,10 +1692,8 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="48" spans="2:7" ht="28.9" customHeight="1">
       <c r="B48" s="5">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
@@ -1815,10 +1703,8 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="49" spans="2:7" ht="28.9" customHeight="1">
       <c r="B49" s="5">
         <f t="shared" si="1"/>
         <v>1.1875</v>
@@ -1828,10 +1714,8 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="50" spans="2:7" ht="28.9" customHeight="1">
       <c r="B50" s="5">
         <f t="shared" si="1"/>
         <v>1.2083333333333333</v>
@@ -1841,10 +1725,8 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="2:9" ht="28.9" customHeight="1">
+    </row>
+    <row r="51" spans="2:7" ht="28.9" customHeight="1">
       <c r="B51" s="5">
         <f t="shared" si="1"/>
         <v>1.2291666666666665</v>
@@ -1854,8 +1736,6 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1870,7 +1750,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 시간을 입력합니다." sqref="E2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 시간을 입력합니다." sqref="F2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에서 시간이 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 이 평일의 활동을 입력합니다." sqref="C3:I3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 이 평일의 활동을 입력합니다." sqref="C3:G3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>

--- a/Doc/이지환 Time Schedule Fix.xlsx
+++ b/Doc/이지환 Time Schedule Fix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYooon\Desktop\Project2002\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJH\Desktop\work\졸작2022~\project2002\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922CD314-C49F-4DBE-98AF-A7BC44BF3EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153AA19-6917-42B4-AD6E-1F8927B5800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="750" windowWidth="21600" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="4"/>
@@ -279,8 +279,14 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +502,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -594,6 +606,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -660,55 +710,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="28" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - 강조색1" xfId="24" builtinId="30" customBuiltin="1"/>
@@ -759,50 +866,7 @@
     <cellStyle name="통화 [0]" xfId="8" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="h:mm;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -851,10 +915,10 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="일정" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstColumn" dxfId="15"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -866,26 +930,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="일정" displayName="일정" ref="B3:G51" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="20% - 강조색2">
-  <autoFilter ref="B3:G51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="시간" totalsRowLabel="요약" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="월" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="화" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="수" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="목" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="금" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="일정" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="이 표에 각 평일의 일정을 입력합니다."/>
-    </ext>
-  </extLst>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,44 +1141,44 @@
   </sheetPr>
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="28.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
     <col min="3" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="33" customHeight="1">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>0.25</v>
       </c>
       <c r="G2"/>
@@ -1142,603 +1186,625 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="2:10" ht="27" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B4" s="5">
+    <row r="4" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B4" s="12">
         <f>시작시간</f>
         <v>0.25</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B5" s="5">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B5" s="15">
         <f t="shared" ref="B5:B37" si="0">B4+TIME(0,30,0)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B6" s="5">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B7" s="5">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>0.31249999999999994</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B8" s="5">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B9" s="5">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>0.35416666666666657</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" ht="29.5" customHeight="1">
-      <c r="B10" s="5">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" ht="29.45" customHeight="1" thickBot="1">
+      <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>0.37499999999999989</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="5">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>0.3958333333333332</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="5">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>0.41666666666666652</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43749999999999983</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333315</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B15" s="15">
+        <f>B14+TIME(0,30,0)</f>
+        <v>0.47916666666666646</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.43749999999999983</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.45833333333333315</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.47916666666666646</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="17" t="s">
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52083333333333315</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56249999999999989</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.68750000000000011</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333348</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.72916666666666685</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333359</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.81250000000000033</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B33" s="15">
+        <f t="shared" si="0"/>
+        <v>0.85416666666666707</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.87500000000000044</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B35" s="15">
+        <f t="shared" si="0"/>
+        <v>0.89583333333333381</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B36" s="15">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666718</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.52083333333333315</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666652</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56249999999999989</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.68750000000000011</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333348</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.72916666666666685</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75000000000000022</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333359</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.81250000000000033</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.8333333333333337</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666707</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.87500000000000044</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.89583333333333381</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666718</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B37" s="5">
+      <c r="D36" s="17"/>
+      <c r="E36" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B37" s="15">
         <f t="shared" si="0"/>
         <v>0.93750000000000056</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B38" s="5">
+      <c r="C37" s="23"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B38" s="15">
         <f t="shared" ref="B38:B51" si="1">B37+TIME(0,30,0)</f>
         <v>0.95833333333333393</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B39" s="5">
+      <c r="C38" s="23"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>0.9791666666666673</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B40" s="5">
+      <c r="C39" s="24"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>1.0000000000000007</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B41" s="5">
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>1.0208333333333339</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B42" s="5">
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>1.0416666666666672</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B43" s="5">
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>1.0625000000000004</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B44" s="5">
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>1.0833333333333337</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B45" s="5">
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>1.104166666666667</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B46" s="5">
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>1.1250000000000002</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B47" s="5">
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>1.1458333333333335</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B48" s="5">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B49" s="5">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>1.1875</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B50" s="5">
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>1.2083333333333333</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" ht="28.9" customHeight="1">
-      <c r="B51" s="5">
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="2:7" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B51" s="19">
         <f t="shared" si="1"/>
         <v>1.2291666666666665</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="23">
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -1758,8 +1824,5 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>